--- a/config_Release/match_naming_cfg.xlsx
+++ b/config_Release/match_naming_cfg.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\JyQipai_doc\config_release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>id</t>
   </si>
@@ -280,37 +280,6 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>捕鱼大奖赛开始报名了，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF191F25"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>%s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF191F25"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>点准时开赛！</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF191F25"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t>捕鱼大奖赛距离开赛还有</t>
     </r>
     <r>
@@ -432,6 +401,70 @@
       </rPr>
       <t>点准时开赛！</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF191F25"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>捕鱼超级大奖赛开始报名了，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF191F25"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>%s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF191F25"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点准时开赛！</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF191F25"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>捕鱼千元大奖赛开始报名了，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF191F25"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>%s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF191F25"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点准时开赛！</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -781,10 +814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -892,10 +925,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -912,10 +945,30 @@
         <v>0</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>16</v>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
